--- a/zoning_analysis_summary_cambridge.xlsx
+++ b/zoning_analysis_summary_cambridge.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Percentage with Potential</t>
+          <t>Percentage with Potential (%)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -474,30 +474,20 @@
           <t>ASD</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>480.95K</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>36.07M</t>
-        </is>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>480945.01</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>36070876.01</v>
       </c>
     </row>
     <row r="3">
@@ -509,30 +499,20 @@
           <t>BA</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>303</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.34M</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>99.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>100.79M</t>
-        </is>
+      <c r="C3" t="n">
+        <v>303</v>
+      </c>
+      <c r="D3" t="n">
+        <v>302</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1343824.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>99.67</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100786874.05</v>
       </c>
     </row>
     <row r="4">
@@ -544,30 +524,20 @@
           <t>BA-1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.73K</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>47.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>205.11K</t>
-        </is>
+      <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2734.85</v>
+      </c>
+      <c r="F4" t="n">
+        <v>47.73</v>
+      </c>
+      <c r="G4" t="n">
+        <v>205113.76</v>
       </c>
     </row>
     <row r="5">
@@ -579,30 +549,20 @@
           <t>BA-2</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>353.14K</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>26.49M</t>
-        </is>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54</v>
+      </c>
+      <c r="E5" t="n">
+        <v>353135.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>26485155.34</v>
       </c>
     </row>
     <row r="6">
@@ -614,10 +574,8 @@
           <t>BA-3</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="C6" t="n">
+        <v>57</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -641,30 +599,20 @@
           <t>BA-4</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26.87K</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.02M</t>
-        </is>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>26869.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2015190.34</v>
       </c>
     </row>
     <row r="8">
@@ -676,30 +624,20 @@
           <t>BA-5</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>71.11K</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>5.33M</t>
-        </is>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>71114.78999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5333609.28</v>
       </c>
     </row>
     <row r="9">
@@ -711,30 +649,20 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.55M</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>341.58M</t>
-        </is>
+      <c r="C9" t="n">
+        <v>195</v>
+      </c>
+      <c r="D9" t="n">
+        <v>195</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4554339.44</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>341575457.84</v>
       </c>
     </row>
     <row r="10">
@@ -746,30 +674,20 @@
           <t>BC</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>660.8K</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>49.56M</t>
-        </is>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>660804.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>49560322.24</v>
       </c>
     </row>
     <row r="11">
@@ -781,30 +699,20 @@
           <t>C-1</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.2K</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>49.53K</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>3.71M</t>
-        </is>
+      <c r="C11" t="n">
+        <v>10204</v>
+      </c>
+      <c r="D11" t="n">
+        <v>36</v>
+      </c>
+      <c r="E11" t="n">
+        <v>49529.09</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3714681.5</v>
       </c>
     </row>
     <row r="12">
@@ -816,30 +724,20 @@
           <t>C-1A</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>158.62K</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>11.9M</t>
-        </is>
+      <c r="C12" t="n">
+        <v>42</v>
+      </c>
+      <c r="D12" t="n">
+        <v>39</v>
+      </c>
+      <c r="E12" t="n">
+        <v>158624.18</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92.86</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11896813.23</v>
       </c>
     </row>
     <row r="13">
@@ -851,30 +749,20 @@
           <t>C-2</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.43M</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>482.24M</t>
-        </is>
+      <c r="C13" t="n">
+        <v>73</v>
+      </c>
+      <c r="D13" t="n">
+        <v>73</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6429858.01</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>482239351.08</v>
       </c>
     </row>
     <row r="14">
@@ -886,30 +774,20 @@
           <t>C-2A</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>542.37K</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>40.68M</t>
-        </is>
+      <c r="C14" t="n">
+        <v>35</v>
+      </c>
+      <c r="D14" t="n">
+        <v>35</v>
+      </c>
+      <c r="E14" t="n">
+        <v>542367.52</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>40677564.21</v>
       </c>
     </row>
     <row r="15">
@@ -921,30 +799,20 @@
           <t>C-2B</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>468.55K</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>35.14M</t>
-        </is>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" t="n">
+        <v>468553.53</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>35141514.41</v>
       </c>
     </row>
     <row r="16">
@@ -956,30 +824,20 @@
           <t>C-3</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>128.25M</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>9.62B</t>
-        </is>
+      <c r="C16" t="n">
+        <v>140</v>
+      </c>
+      <c r="D16" t="n">
+        <v>140</v>
+      </c>
+      <c r="E16" t="n">
+        <v>128250437.92</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9618782843.75</v>
       </c>
     </row>
     <row r="17">
@@ -991,30 +849,20 @@
           <t>C-3A</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>100.13K</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>7.51M</t>
-        </is>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100126.88</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7509516.24</v>
       </c>
     </row>
     <row r="18">
@@ -1026,30 +874,20 @@
           <t>C-3B</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.19M</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>88.94M</t>
-        </is>
+      <c r="C18" t="n">
+        <v>13</v>
+      </c>
+      <c r="D18" t="n">
+        <v>13</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1185897.57</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>88942317.43000001</v>
       </c>
     </row>
     <row r="19">
@@ -1061,30 +899,20 @@
           <t>CRDD</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.6M</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>194.88M</t>
-        </is>
+      <c r="C19" t="n">
+        <v>41</v>
+      </c>
+      <c r="D19" t="n">
+        <v>41</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2598364.55</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>194877341.16</v>
       </c>
     </row>
     <row r="20">
@@ -1096,30 +924,20 @@
           <t>IA-1</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>722.79K</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>54.21M</t>
-        </is>
+      <c r="C20" t="n">
+        <v>39</v>
+      </c>
+      <c r="D20" t="n">
+        <v>39</v>
+      </c>
+      <c r="E20" t="n">
+        <v>722788.37</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>54209127.39</v>
       </c>
     </row>
     <row r="21">
@@ -1131,30 +949,20 @@
           <t>IA-2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>36.18K</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2.71M</t>
-        </is>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>36178.52</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2713388.72</v>
       </c>
     </row>
     <row r="22">
@@ -1166,30 +974,20 @@
           <t>IB</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>9.64M</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>722.79M</t>
-        </is>
+      <c r="C22" t="n">
+        <v>33</v>
+      </c>
+      <c r="D22" t="n">
+        <v>33</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9637258.189999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>722794363.89</v>
       </c>
     </row>
     <row r="23">
@@ -1201,10 +999,8 @@
           <t>IB-2</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="C23" t="n">
+        <v>24</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1228,30 +1024,20 @@
           <t>MXD</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>807.15K</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>60.54M</t>
-        </is>
+      <c r="C24" t="n">
+        <v>14</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12</v>
+      </c>
+      <c r="E24" t="n">
+        <v>807154.99</v>
+      </c>
+      <c r="F24" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>60536624.51</v>
       </c>
     </row>
     <row r="25">
@@ -1263,30 +1049,20 @@
           <t>NP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4.12M</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>308.77M</t>
-        </is>
+      <c r="C25" t="n">
+        <v>33</v>
+      </c>
+      <c r="D25" t="n">
+        <v>33</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4116927.53</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>308769564.55</v>
       </c>
     </row>
     <row r="26">
@@ -1298,10 +1074,8 @@
           <t>O-1</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="C26" t="n">
+        <v>68</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1325,30 +1099,20 @@
           <t>O-2</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.4K</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>330.17K</t>
-        </is>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4402.33</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>330174.57</v>
       </c>
     </row>
     <row r="28">
@@ -1360,30 +1124,20 @@
           <t>O-2A</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>609.67K</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>45.73M</t>
-        </is>
+      <c r="C28" t="n">
+        <v>16</v>
+      </c>
+      <c r="D28" t="n">
+        <v>16</v>
+      </c>
+      <c r="E28" t="n">
+        <v>609668.73</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>45725154.95</v>
       </c>
     </row>
     <row r="29">
@@ -1395,30 +1149,20 @@
           <t>O-3</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>543.93K</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>40.79M</t>
-        </is>
+      <c r="C29" t="n">
+        <v>22</v>
+      </c>
+      <c r="D29" t="n">
+        <v>22</v>
+      </c>
+      <c r="E29" t="n">
+        <v>543926.34</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>40794475.79</v>
       </c>
     </row>
     <row r="30">
@@ -1430,30 +1174,20 @@
           <t>O-3A</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>963.18K</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>72.24M</t>
-        </is>
+      <c r="C30" t="n">
+        <v>10</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>963177.95</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100</v>
+      </c>
+      <c r="G30" t="n">
+        <v>72238346.09</v>
       </c>
     </row>
     <row r="31">
@@ -1465,30 +1199,20 @@
           <t>OS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>17.89K</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>35.29</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>1.34M</t>
-        </is>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>12</v>
+      </c>
+      <c r="E31" t="n">
+        <v>17886.82</v>
+      </c>
+      <c r="F31" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1341511.26</v>
       </c>
     </row>
     <row r="32">
@@ -1500,30 +1224,20 @@
           <t>SD-1</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>9.84K</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>738.2K</t>
-        </is>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9842.67</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>738200.15</v>
       </c>
     </row>
     <row r="33">
@@ -1535,10 +1249,8 @@
           <t>SD-10(F)</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C33" t="n">
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1562,10 +1274,8 @@
           <t>SD-10(H)</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="C34" t="n">
+        <v>11</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1589,30 +1299,20 @@
           <t>SD-11</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>72.14K</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>5.41M</t>
-        </is>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>72135.74000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5410180.75</v>
       </c>
     </row>
     <row r="36">
@@ -1624,10 +1324,8 @@
           <t>SD-14</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="C36" t="n">
+        <v>14</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1651,30 +1349,20 @@
           <t>SD-15</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>492.04K</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>36.9M</t>
-        </is>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>492037.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100</v>
+      </c>
+      <c r="G37" t="n">
+        <v>36902804.94</v>
       </c>
     </row>
     <row r="38">
@@ -1686,10 +1374,8 @@
           <t>SD-2</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C38" t="n">
+        <v>28</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1713,30 +1399,20 @@
           <t>SD-4</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>191.98K</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>14.4M</t>
-        </is>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>191978.73</v>
+      </c>
+      <c r="F39" t="n">
+        <v>100</v>
+      </c>
+      <c r="G39" t="n">
+        <v>14398404.49</v>
       </c>
     </row>
     <row r="40">
@@ -1748,30 +1424,20 @@
           <t>SD-4A</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>14.25K</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>1.07M</t>
-        </is>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>14247.52</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1068563.7</v>
       </c>
     </row>
     <row r="41">
@@ -1783,30 +1449,20 @@
           <t>SD-5</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>12.94K</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>970.34K</t>
-        </is>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>12937.84</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" t="n">
+        <v>970337.8199999999</v>
       </c>
     </row>
     <row r="42">
@@ -1818,30 +1474,20 @@
           <t>SD-6</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>98.88M</t>
-        </is>
+      <c r="C42" t="n">
+        <v>14</v>
+      </c>
+      <c r="D42" t="n">
+        <v>14</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1318451.28</v>
+      </c>
+      <c r="F42" t="n">
+        <v>100</v>
+      </c>
+      <c r="G42" t="n">
+        <v>98883845.78</v>
       </c>
     </row>
     <row r="43">
@@ -1853,30 +1499,20 @@
           <t>SD-7</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>30.5K</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2.29M</t>
-        </is>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>30496.79</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2287259.44</v>
       </c>
     </row>
     <row r="44">
@@ -1888,30 +1524,20 @@
           <t>SD-8</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>443.86K</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>33.29M</t>
-        </is>
+      <c r="C44" t="n">
+        <v>25</v>
+      </c>
+      <c r="D44" t="n">
+        <v>25</v>
+      </c>
+      <c r="E44" t="n">
+        <v>443855.89</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100</v>
+      </c>
+      <c r="G44" t="n">
+        <v>33289191.5</v>
       </c>
     </row>
     <row r="45">
@@ -1923,30 +1549,20 @@
           <t>SD-8A</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>61.92K</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>4.64M</t>
-        </is>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>61915.6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4643670</v>
       </c>
     </row>
     <row r="46">
@@ -1958,10 +1574,8 @@
           <t>SD-9</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C46" t="n">
+        <v>40</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
